--- a/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
+++ b/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E21F99E-FDE4-462A-B52C-61B83752C5F0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240DA4B9-D0D9-4A1A-AB34-A88086569571}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1470" windowWidth="38640" windowHeight="21120" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
+    <workbookView xWindow="-38505" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rohdaten_Strassenabschnitt_1" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>Breite Baumrigole</t>
   </si>
   <si>
-    <t xml:space="preserve">Breite Sickerbelag </t>
-  </si>
-  <si>
     <t>Breite Aphaltbelag</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>Baumgrubengrundfläche</t>
+  </si>
+  <si>
+    <t>Breite Sickerbelag (Chaussierung)</t>
   </si>
 </sst>
 </file>
@@ -297,18 +297,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -332,22 +326,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -691,7 +678,7 @@
   <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,7 +698,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +716,7 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>40</v>
       </c>
       <c r="D3" t="s">
@@ -746,11 +733,11 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
-        <v>14</v>
+      <c r="C4" s="5">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -769,8 +756,8 @@
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
+      <c r="C5" s="5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -789,8 +776,8 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6">
-        <v>6</v>
+      <c r="C6" s="5">
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -809,7 +796,7 @@
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>36</v>
       </c>
       <c r="D7" t="s">
@@ -826,17 +813,17 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -846,17 +833,17 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5">
         <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -866,17 +853,17 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -889,14 +876,14 @@
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2.25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -909,17 +896,17 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -929,17 +916,17 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,36 +934,36 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -986,17 +973,17 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1006,17 +993,17 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1026,17 +1013,17 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1046,17 +1033,17 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1064,77 +1051,77 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
+      <c r="F20" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5">
         <v>1.8</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="8" t="s">
-        <v>58</v>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5">
         <v>1.5</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="8" t="s">
-        <v>59</v>
+      <c r="F22" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="6">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5">
         <v>1.3</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="8" t="s">
-        <v>60</v>
+      <c r="F23" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="6">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.8</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="8" t="s">
-        <v>61</v>
+      <c r="F24" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1144,7 +1131,7 @@
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>80</v>
       </c>
       <c r="D25" t="s">
@@ -1158,18 +1145,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
+      <c r="B27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1185,11 +1172,11 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="6">
-        <v>4</v>
+      <c r="B28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -1205,11 +1192,11 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
+      <c r="B29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -1222,12 +1209,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">

--- a/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
+++ b/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="20" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240DA4B9-D0D9-4A1A-AB34-A88086569571}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="-1350" windowWidth="19410" windowHeight="20985" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rohdaten_Strassenabschnitt_1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -333,10 +333,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -677,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39B6B9A-559B-46E7-89B7-4D2CB2116C04}">
   <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +729,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="5">
@@ -1152,7 +1148,7 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="5">
@@ -1172,7 +1168,7 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="5">
@@ -1192,7 +1188,7 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="5">

--- a/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
+++ b/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240DA4B9-D0D9-4A1A-AB34-A88086569571}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC28428-BC92-4AA7-8E0F-A5DF12187471}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Konstante</t>
   </si>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39B6B9A-559B-46E7-89B7-4D2CB2116C04}">
   <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,6 +946,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>

--- a/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
+++ b/00_data_raw/Rohdaten_Matrix_Standort_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC28428-BC92-4AA7-8E0F-A5DF12187471}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{026741F9-F011-448B-B569-C1E045818DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7A78D8C-2394-4D8B-BEE3-33132F2DBE3D}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{03B36E02-7909-4041-A841-6969D6BB26D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rohdaten_Strassenabschnitt_1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>Konstante</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>leicht befahrbar (ev. für Lieferungen), wird nicht gross genutzt, nicht unbedingt barrierefrei</t>
-  </si>
-  <si>
-    <t>Debritstrasse, Standort 1</t>
   </si>
   <si>
     <t>Bäume</t>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>Breite Sickerbelag (Chaussierung)</t>
+  </si>
+  <si>
+    <t>Debritstrasse, Untersuchungsperimeter</t>
   </si>
 </sst>
 </file>
@@ -671,17 +671,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39B6B9A-559B-46E7-89B7-4D2CB2116C04}">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="40.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="49.7265625" customWidth="1"/>
     <col min="6" max="6" width="19.54296875" customWidth="1"/>
@@ -710,19 +710,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -730,219 +730,219 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>2.25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -950,19 +950,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -970,19 +970,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -990,19 +990,19 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1010,19 +1010,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1030,19 +1030,19 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1050,224 +1050,243 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.8</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="5">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="5"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
+      <c r="D27" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="5"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="5"/>
-      <c r="E31" s="3"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="5"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E51" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
